--- a/excelFile.xlsx
+++ b/excelFile.xlsx
@@ -352,7 +352,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,12 +376,12 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>4</v>
